--- a/data/2020-07-16/indiana.xlsx
+++ b/data/2020-07-16/indiana.xlsx
@@ -413,19 +413,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49406</v>
+        <v>47972</v>
       </c>
       <c r="C2" t="n">
-        <v>4231</v>
+        <v>4121</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>8.300000000000001</v>
+        <v>8.18</v>
       </c>
       <c r="F2" t="n">
-        <v>7.82</v>
+        <v>7.72</v>
       </c>
       <c r="G2" t="n">
         <v>0.08</v>
@@ -438,19 +438,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92080</v>
+        <v>90439</v>
       </c>
       <c r="C3" t="n">
-        <v>9216</v>
+        <v>9055</v>
       </c>
       <c r="D3" t="n">
         <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>15.46</v>
+        <v>15.42</v>
       </c>
       <c r="F3" t="n">
-        <v>17.04</v>
+        <v>16.97</v>
       </c>
       <c r="G3" t="n">
         <v>0.31</v>
@@ -463,19 +463,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92377</v>
+        <v>91074</v>
       </c>
       <c r="C4" t="n">
-        <v>8585</v>
+        <v>8491</v>
       </c>
       <c r="D4" t="n">
         <v>18</v>
       </c>
       <c r="E4" t="n">
-        <v>15.51</v>
+        <v>15.53</v>
       </c>
       <c r="F4" t="n">
-        <v>15.87</v>
+        <v>15.91</v>
       </c>
       <c r="G4" t="n">
         <v>0.6899999999999999</v>
@@ -488,19 +488,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89444</v>
+        <v>88199</v>
       </c>
       <c r="C5" t="n">
-        <v>8901</v>
+        <v>8788</v>
       </c>
       <c r="D5" t="n">
         <v>46</v>
       </c>
       <c r="E5" t="n">
-        <v>15.02</v>
+        <v>15.04</v>
       </c>
       <c r="F5" t="n">
-        <v>16.46</v>
+        <v>16.47</v>
       </c>
       <c r="G5" t="n">
         <v>1.77</v>
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96603</v>
+        <v>95335</v>
       </c>
       <c r="C6" t="n">
-        <v>8327</v>
+        <v>8232</v>
       </c>
       <c r="D6" t="n">
         <v>133</v>
       </c>
       <c r="E6" t="n">
-        <v>16.22</v>
+        <v>16.25</v>
       </c>
       <c r="F6" t="n">
-        <v>15.4</v>
+        <v>15.42</v>
       </c>
       <c r="G6" t="n">
-        <v>5.11</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="7">
@@ -538,22 +538,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84692</v>
+        <v>83607</v>
       </c>
       <c r="C7" t="n">
-        <v>6387</v>
+        <v>6311</v>
       </c>
       <c r="D7" t="n">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E7" t="n">
-        <v>14.22</v>
+        <v>14.25</v>
       </c>
       <c r="F7" t="n">
-        <v>11.81</v>
+        <v>11.82</v>
       </c>
       <c r="G7" t="n">
-        <v>15.83</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="8">
@@ -563,22 +563,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53150</v>
+        <v>52487</v>
       </c>
       <c r="C8" t="n">
-        <v>4014</v>
+        <v>3968</v>
       </c>
       <c r="D8" t="n">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E8" t="n">
-        <v>8.92</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>7.42</v>
+        <v>7.43</v>
       </c>
       <c r="G8" t="n">
-        <v>24.6</v>
+        <v>24.54</v>
       </c>
     </row>
     <row r="9">
@@ -588,22 +588,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34528</v>
+        <v>34196</v>
       </c>
       <c r="C9" t="n">
-        <v>4387</v>
+        <v>4372</v>
       </c>
       <c r="D9" t="n">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="E9" t="n">
-        <v>5.8</v>
+        <v>5.83</v>
       </c>
       <c r="F9" t="n">
-        <v>8.109999999999999</v>
+        <v>8.19</v>
       </c>
       <c r="G9" t="n">
-        <v>51.61</v>
+        <v>51.66</v>
       </c>
     </row>
     <row r="10">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3278</v>
+        <v>3280</v>
       </c>
       <c r="C10" t="n">
         <v>32</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F10" t="n">
         <v>0.06</v>
@@ -694,16 +694,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>340981</v>
+        <v>336036</v>
       </c>
       <c r="C2" t="n">
-        <v>28259</v>
+        <v>27884</v>
       </c>
       <c r="D2" t="n">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="E2" t="n">
-        <v>57.25</v>
+        <v>57.29</v>
       </c>
       <c r="F2" t="n">
         <v>52.25</v>
@@ -719,19 +719,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>242755</v>
+        <v>238840</v>
       </c>
       <c r="C3" t="n">
-        <v>24889</v>
+        <v>24567</v>
       </c>
       <c r="D3" t="n">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="E3" t="n">
-        <v>40.76</v>
+        <v>40.72</v>
       </c>
       <c r="F3" t="n">
-        <v>46.02</v>
+        <v>46.03</v>
       </c>
       <c r="G3" t="n">
         <v>49.27</v>
@@ -744,16 +744,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11822</v>
+        <v>11713</v>
       </c>
       <c r="C4" t="n">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="D4" t="n">
         <v>54</v>
       </c>
       <c r="E4" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>1.72</v>
@@ -825,19 +825,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5008</v>
+        <v>4962</v>
       </c>
       <c r="C2" t="n">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D2" t="n">
         <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="F2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="G2" t="n">
         <v>0.5</v>
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51929</v>
+        <v>51472</v>
       </c>
       <c r="C3" t="n">
-        <v>6355</v>
+        <v>6311</v>
       </c>
       <c r="D3" t="n">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E3" t="n">
-        <v>8.720000000000001</v>
+        <v>8.77</v>
       </c>
       <c r="F3" t="n">
-        <v>11.75</v>
+        <v>11.82</v>
       </c>
       <c r="G3" t="n">
-        <v>14.3</v>
+        <v>14.31</v>
       </c>
     </row>
     <row r="4">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80518</v>
+        <v>79965</v>
       </c>
       <c r="C4" t="n">
-        <v>9323</v>
+        <v>9259</v>
       </c>
       <c r="D4" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E4" t="n">
-        <v>13.52</v>
+        <v>13.63</v>
       </c>
       <c r="F4" t="n">
-        <v>17.24</v>
+        <v>17.35</v>
       </c>
       <c r="G4" t="n">
-        <v>13.26</v>
+        <v>13.27</v>
       </c>
     </row>
     <row r="5">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>110670</v>
+        <v>107037</v>
       </c>
       <c r="C5" t="n">
-        <v>12617</v>
+        <v>12322</v>
       </c>
       <c r="D5" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E5" t="n">
-        <v>18.58</v>
+        <v>18.25</v>
       </c>
       <c r="F5" t="n">
-        <v>23.33</v>
+        <v>23.09</v>
       </c>
       <c r="G5" t="n">
-        <v>7.07</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="6">
@@ -925,22 +925,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>347433</v>
+        <v>343153</v>
       </c>
       <c r="C6" t="n">
-        <v>25035</v>
+        <v>24730</v>
       </c>
       <c r="D6" t="n">
-        <v>1688</v>
+        <v>1682</v>
       </c>
       <c r="E6" t="n">
-        <v>58.34</v>
+        <v>58.5</v>
       </c>
       <c r="F6" t="n">
-        <v>46.29</v>
+        <v>46.34</v>
       </c>
       <c r="G6" t="n">
-        <v>64.87</v>
+        <v>64.89</v>
       </c>
     </row>
   </sheetData>
@@ -1006,22 +1006,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19846</v>
+        <v>19569</v>
       </c>
       <c r="C2" t="n">
-        <v>6030</v>
+        <v>5971</v>
       </c>
       <c r="D2" t="n">
         <v>51</v>
       </c>
       <c r="E2" t="n">
-        <v>3.33</v>
+        <v>3.34</v>
       </c>
       <c r="F2" t="n">
-        <v>11.15</v>
+        <v>11.19</v>
       </c>
       <c r="G2" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="3">
@@ -1031,22 +1031,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228827</v>
+        <v>225000</v>
       </c>
       <c r="C3" t="n">
-        <v>18169</v>
+        <v>17907</v>
       </c>
       <c r="D3" t="n">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="E3" t="n">
-        <v>38.42</v>
+        <v>38.36</v>
       </c>
       <c r="F3" t="n">
-        <v>33.6</v>
+        <v>33.55</v>
       </c>
       <c r="G3" t="n">
-        <v>52.65</v>
+        <v>52.74</v>
       </c>
     </row>
     <row r="4">
@@ -1056,22 +1056,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346885</v>
+        <v>342020</v>
       </c>
       <c r="C4" t="n">
-        <v>29881</v>
+        <v>29492</v>
       </c>
       <c r="D4" t="n">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="E4" t="n">
-        <v>58.25</v>
+        <v>58.31</v>
       </c>
       <c r="F4" t="n">
-        <v>55.25</v>
+        <v>55.26</v>
       </c>
       <c r="G4" t="n">
-        <v>45.39</v>
+        <v>45.29</v>
       </c>
     </row>
   </sheetData>

--- a/data/2020-07-16/indiana.xlsx
+++ b/data/2020-07-16/indiana.xlsx
@@ -413,19 +413,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47972</v>
+        <v>49406</v>
       </c>
       <c r="C2" t="n">
-        <v>4121</v>
+        <v>4231</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>8.18</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>7.72</v>
+        <v>7.82</v>
       </c>
       <c r="G2" t="n">
         <v>0.08</v>
@@ -438,19 +438,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90439</v>
+        <v>92080</v>
       </c>
       <c r="C3" t="n">
-        <v>9055</v>
+        <v>9216</v>
       </c>
       <c r="D3" t="n">
         <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>15.42</v>
+        <v>15.46</v>
       </c>
       <c r="F3" t="n">
-        <v>16.97</v>
+        <v>17.04</v>
       </c>
       <c r="G3" t="n">
         <v>0.31</v>
@@ -463,19 +463,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91074</v>
+        <v>92377</v>
       </c>
       <c r="C4" t="n">
-        <v>8491</v>
+        <v>8585</v>
       </c>
       <c r="D4" t="n">
         <v>18</v>
       </c>
       <c r="E4" t="n">
-        <v>15.53</v>
+        <v>15.51</v>
       </c>
       <c r="F4" t="n">
-        <v>15.91</v>
+        <v>15.87</v>
       </c>
       <c r="G4" t="n">
         <v>0.6899999999999999</v>
@@ -488,19 +488,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>88199</v>
+        <v>89444</v>
       </c>
       <c r="C5" t="n">
-        <v>8788</v>
+        <v>8901</v>
       </c>
       <c r="D5" t="n">
         <v>46</v>
       </c>
       <c r="E5" t="n">
-        <v>15.04</v>
+        <v>15.02</v>
       </c>
       <c r="F5" t="n">
-        <v>16.47</v>
+        <v>16.46</v>
       </c>
       <c r="G5" t="n">
         <v>1.77</v>
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>95335</v>
+        <v>96603</v>
       </c>
       <c r="C6" t="n">
-        <v>8232</v>
+        <v>8327</v>
       </c>
       <c r="D6" t="n">
         <v>133</v>
       </c>
       <c r="E6" t="n">
-        <v>16.25</v>
+        <v>16.22</v>
       </c>
       <c r="F6" t="n">
-        <v>15.42</v>
+        <v>15.4</v>
       </c>
       <c r="G6" t="n">
-        <v>5.13</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="7">
@@ -538,22 +538,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83607</v>
+        <v>84692</v>
       </c>
       <c r="C7" t="n">
-        <v>6311</v>
+        <v>6387</v>
       </c>
       <c r="D7" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E7" t="n">
-        <v>14.25</v>
+        <v>14.22</v>
       </c>
       <c r="F7" t="n">
-        <v>11.82</v>
+        <v>11.81</v>
       </c>
       <c r="G7" t="n">
-        <v>15.82</v>
+        <v>15.83</v>
       </c>
     </row>
     <row r="8">
@@ -563,22 +563,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52487</v>
+        <v>53150</v>
       </c>
       <c r="C8" t="n">
-        <v>3968</v>
+        <v>4014</v>
       </c>
       <c r="D8" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="E8" t="n">
-        <v>8.949999999999999</v>
+        <v>8.92</v>
       </c>
       <c r="F8" t="n">
-        <v>7.43</v>
+        <v>7.42</v>
       </c>
       <c r="G8" t="n">
-        <v>24.54</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="9">
@@ -588,22 +588,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34196</v>
+        <v>34528</v>
       </c>
       <c r="C9" t="n">
-        <v>4372</v>
+        <v>4387</v>
       </c>
       <c r="D9" t="n">
-        <v>1339</v>
+        <v>1343</v>
       </c>
       <c r="E9" t="n">
-        <v>5.83</v>
+        <v>5.8</v>
       </c>
       <c r="F9" t="n">
-        <v>8.19</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>51.66</v>
+        <v>51.61</v>
       </c>
     </row>
     <row r="10">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3280</v>
+        <v>3278</v>
       </c>
       <c r="C10" t="n">
         <v>32</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="F10" t="n">
         <v>0.06</v>
@@ -694,16 +694,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>336036</v>
+        <v>340981</v>
       </c>
       <c r="C2" t="n">
-        <v>27884</v>
+        <v>28259</v>
       </c>
       <c r="D2" t="n">
-        <v>1261</v>
+        <v>1266</v>
       </c>
       <c r="E2" t="n">
-        <v>57.29</v>
+        <v>57.25</v>
       </c>
       <c r="F2" t="n">
         <v>52.25</v>
@@ -719,19 +719,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>238840</v>
+        <v>242755</v>
       </c>
       <c r="C3" t="n">
-        <v>24567</v>
+        <v>24889</v>
       </c>
       <c r="D3" t="n">
-        <v>1277</v>
+        <v>1282</v>
       </c>
       <c r="E3" t="n">
-        <v>40.72</v>
+        <v>40.76</v>
       </c>
       <c r="F3" t="n">
-        <v>46.03</v>
+        <v>46.02</v>
       </c>
       <c r="G3" t="n">
         <v>49.27</v>
@@ -744,16 +744,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11713</v>
+        <v>11822</v>
       </c>
       <c r="C4" t="n">
-        <v>919</v>
+        <v>932</v>
       </c>
       <c r="D4" t="n">
         <v>54</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="F4" t="n">
         <v>1.72</v>
@@ -825,19 +825,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4962</v>
+        <v>5008</v>
       </c>
       <c r="C2" t="n">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D2" t="n">
         <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="G2" t="n">
         <v>0.5</v>
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51472</v>
+        <v>51929</v>
       </c>
       <c r="C3" t="n">
-        <v>6311</v>
+        <v>6355</v>
       </c>
       <c r="D3" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E3" t="n">
-        <v>8.77</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>11.82</v>
+        <v>11.75</v>
       </c>
       <c r="G3" t="n">
-        <v>14.31</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="4">
@@ -875,22 +875,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79965</v>
+        <v>80518</v>
       </c>
       <c r="C4" t="n">
-        <v>9259</v>
+        <v>9323</v>
       </c>
       <c r="D4" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E4" t="n">
-        <v>13.63</v>
+        <v>13.52</v>
       </c>
       <c r="F4" t="n">
-        <v>17.35</v>
+        <v>17.24</v>
       </c>
       <c r="G4" t="n">
-        <v>13.27</v>
+        <v>13.26</v>
       </c>
     </row>
     <row r="5">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107037</v>
+        <v>110670</v>
       </c>
       <c r="C5" t="n">
-        <v>12322</v>
+        <v>12617</v>
       </c>
       <c r="D5" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E5" t="n">
-        <v>18.25</v>
+        <v>18.58</v>
       </c>
       <c r="F5" t="n">
-        <v>23.09</v>
+        <v>23.33</v>
       </c>
       <c r="G5" t="n">
-        <v>7.02</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="6">
@@ -925,22 +925,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>343153</v>
+        <v>347433</v>
       </c>
       <c r="C6" t="n">
-        <v>24730</v>
+        <v>25035</v>
       </c>
       <c r="D6" t="n">
-        <v>1682</v>
+        <v>1688</v>
       </c>
       <c r="E6" t="n">
-        <v>58.5</v>
+        <v>58.34</v>
       </c>
       <c r="F6" t="n">
-        <v>46.34</v>
+        <v>46.29</v>
       </c>
       <c r="G6" t="n">
-        <v>64.89</v>
+        <v>64.87</v>
       </c>
     </row>
   </sheetData>
@@ -1006,22 +1006,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19569</v>
+        <v>19846</v>
       </c>
       <c r="C2" t="n">
-        <v>5971</v>
+        <v>6030</v>
       </c>
       <c r="D2" t="n">
         <v>51</v>
       </c>
       <c r="E2" t="n">
-        <v>3.34</v>
+        <v>3.33</v>
       </c>
       <c r="F2" t="n">
-        <v>11.19</v>
+        <v>11.15</v>
       </c>
       <c r="G2" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="3">
@@ -1031,22 +1031,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>225000</v>
+        <v>228827</v>
       </c>
       <c r="C3" t="n">
-        <v>17907</v>
+        <v>18169</v>
       </c>
       <c r="D3" t="n">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="E3" t="n">
-        <v>38.36</v>
+        <v>38.42</v>
       </c>
       <c r="F3" t="n">
-        <v>33.55</v>
+        <v>33.6</v>
       </c>
       <c r="G3" t="n">
-        <v>52.74</v>
+        <v>52.65</v>
       </c>
     </row>
     <row r="4">
@@ -1056,22 +1056,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>342020</v>
+        <v>346885</v>
       </c>
       <c r="C4" t="n">
-        <v>29492</v>
+        <v>29881</v>
       </c>
       <c r="D4" t="n">
-        <v>1174</v>
+        <v>1181</v>
       </c>
       <c r="E4" t="n">
-        <v>58.31</v>
+        <v>58.25</v>
       </c>
       <c r="F4" t="n">
-        <v>55.26</v>
+        <v>55.25</v>
       </c>
       <c r="G4" t="n">
-        <v>45.29</v>
+        <v>45.39</v>
       </c>
     </row>
   </sheetData>
